--- a/src/test/resources/mysmoketestdata.xlsx
+++ b/src/test/resources/mysmoketestdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\B151CucumberNT\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monster\Desktop\ErolHocaCucember\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B18C19D-9CEB-4DDE-9016-28713A945931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8355" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_info" sheetId="1" r:id="rId1"/>
@@ -67,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -79,14 +80,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -107,20 +100,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -333,7 +324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -341,12 +332,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -354,7 +345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -362,7 +353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -370,7 +361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -378,7 +369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -392,22 +383,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -423,19 +414,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>